--- a/HiSql.Extension/HiSql.Excel/Template/Excel_Template_Header.xlsx
+++ b/HiSql.Extension/HiSql.Excel/Template/Excel_Template_Header.xlsx
@@ -122,18 +122,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,30 +456,31 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:2" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HiSql.Extension/HiSql.Excel/Template/Excel_Template_Header.xlsx
+++ b/HiSql.Extension/HiSql.Excel/Template/Excel_Template_Header.xlsx
@@ -1,96 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OpenSource\HiSql\HiSql.Extension\HiSql.Excel\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="数据" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,49 +45,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -156,7 +69,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +85,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -184,7 +97,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -201,7 +114,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -231,29 +144,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -283,23 +179,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,38 +331,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:2" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>